--- a/Lumi.xlsx
+++ b/Lumi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09139D12-B751-4706-B039-04215AB5EAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB80B2C8-281A-43BA-B86C-7C87CB20271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="9">
   <si>
     <t>G</t>
   </si>
@@ -83,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +114,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -262,11 +268,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -332,6 +349,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -405,15 +425,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>376518</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>385482</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -455,15 +475,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>358140</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -505,15 +525,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>322730</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>367552</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -555,15 +575,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>322730</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>367552</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -605,15 +625,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>367552</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -655,15 +675,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>13252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>367553</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>13253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -731,6 +751,206 @@
         <a:xfrm>
           <a:off x="11492753" y="4285129"/>
           <a:ext cx="350520" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>358589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81578</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>323627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AB7225-A0C8-4A5C-A779-7563E3FF3C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1308846" y="8453718"/>
+          <a:ext cx="350520" cy="350521"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>350521</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B361FA3-9605-4C69-BCC2-981B498FE454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5127812" y="7709647"/>
+          <a:ext cx="350520" cy="350521"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>358588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A638B5F-8395-4E3A-8071-E3D728483641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5925671" y="15867529"/>
+          <a:ext cx="295835" cy="295835"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>358140</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CA011B-943D-4E59-96D5-34E16D4C1814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5954806" y="12789498"/>
+          <a:ext cx="409687" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1019,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AW25"/>
+  <dimension ref="B3:AX36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:O13"/>
+    <sheetView tabSelected="1" topLeftCell="I14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1519,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="2:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
       <c r="C17" s="7"/>
       <c r="D17" s="12"/>
@@ -1333,7 +1553,7 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="13"/>
     </row>
-    <row r="18" spans="2:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1342,7 +1562,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1355,312 +1575,524 @@
       <c r="AD19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AL19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="4"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="O20" s="3"/>
       <c r="P20" s="4"/>
       <c r="S20" s="2"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="Y20" s="4"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="19"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="19"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="6"/>
-    </row>
-    <row r="21" spans="2:49" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4"/>
+    </row>
+    <row r="21" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="8"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="C21" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="N21" s="6"/>
-      <c r="O21" s="14"/>
+      <c r="O21" s="6"/>
       <c r="P21" s="8"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="14"/>
       <c r="Y21" s="8"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="6"/>
-      <c r="AW21" s="6"/>
-    </row>
-    <row r="22" spans="2:49" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="8"/>
+    </row>
+    <row r="22" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="14"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="8"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="14"/>
+      <c r="O22" s="6"/>
       <c r="P22" s="8"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="10"/>
+      <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
+      <c r="X22" s="14"/>
       <c r="Y22" s="8"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
+      <c r="AF22" s="14"/>
       <c r="AG22" s="8"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="8"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="8"/>
-    </row>
-    <row r="23" spans="2:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+    </row>
+    <row r="23" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="8"/>
+      <c r="J23" s="5"/>
+      <c r="P23" s="8"/>
+      <c r="S23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6" t="s">
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="8"/>
-      <c r="J23" s="7" t="s">
+      <c r="W23" s="14"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="AA23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="6" t="s">
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="8"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="8"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="8"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="8"/>
-    </row>
-    <row r="24" spans="2:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="14"/>
+    </row>
+    <row r="24" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="14"/>
+      <c r="G24" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="15"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="8"/>
+      <c r="O24" s="6"/>
       <c r="P24" s="8"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="10"/>
+      <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+      <c r="V24" s="15"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
+      <c r="AD24" s="7"/>
       <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
+      <c r="AF24" s="13"/>
       <c r="AG24" s="8"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="8"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="8"/>
-    </row>
-    <row r="25" spans="2:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="13"/>
       <c r="J25" s="11"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="8"/>
+      <c r="O25" s="12"/>
       <c r="P25" s="13"/>
       <c r="S25" s="11"/>
-      <c r="T25" s="10"/>
+      <c r="T25" s="12"/>
       <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
+      <c r="V25" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
+      <c r="X25" s="8"/>
       <c r="Y25" s="13"/>
       <c r="AA25" s="11"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
+      <c r="AD25" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
+      <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="12"/>
-      <c r="AN25" s="12"/>
-      <c r="AO25" s="13"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="12"/>
-      <c r="AS25" s="12"/>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="12"/>
-      <c r="AV25" s="12"/>
-      <c r="AW25" s="13"/>
+    </row>
+    <row r="30" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:50" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="4"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="19"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="19"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="6"/>
+    </row>
+    <row r="32" spans="2:50" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="8"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="8"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V32" s="6"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="8"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="6"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="6"/>
+    </row>
+    <row r="33" spans="3:50" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="8"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="8"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="8"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="8"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="8"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="6"/>
+      <c r="AU33" s="6"/>
+      <c r="AV33" s="6"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="8"/>
+    </row>
+    <row r="34" spans="3:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="8"/>
+      <c r="K34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="14"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="8"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="8"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="8"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="6"/>
+      <c r="AU34" s="6"/>
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="6"/>
+      <c r="AX34" s="8"/>
+    </row>
+    <row r="35" spans="3:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="8"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="8"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="8"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="8"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV35" s="21"/>
+      <c r="AW35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX35" s="8"/>
+    </row>
+    <row r="36" spans="3:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="12"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="13"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="13"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="13"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="13"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
